--- a/共性研究室工作周报.xlsx
+++ b/共性研究室工作周报.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="例会纪要管理" sheetId="5" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="135">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -549,11 +549,15 @@
     <t>陈林翠就信产中心离线数据做了初步探索，理出了现有数据质量的现状。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -755,21 +759,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -782,17 +771,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -802,6 +782,30 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -821,7 +825,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -896,23 +900,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -948,23 +935,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1157,25 +1127,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
@@ -1427,13 +1397,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="38"/>
+    <col min="1" max="1" width="9" style="30"/>
     <col min="2" max="2" width="17.25" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="52.625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.125" style="3" customWidth="1"/>
@@ -1444,21 +1414,21 @@
     <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="29" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:9" s="24" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
     </row>
     <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="22" t="s">
@@ -1476,7 +1446,7 @@
       <c r="F2" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="26" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="22" t="s">
@@ -1487,10 +1457,10 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="32">
+      <c r="A3" s="27">
         <v>1</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="34" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="14" t="s">
@@ -1503,7 +1473,7 @@
       <c r="F3" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="34">
+      <c r="G3" s="28">
         <v>43084</v>
       </c>
       <c r="H3" s="12"/>
@@ -1512,8 +1482,8 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="32"/>
-      <c r="B4" s="35"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="14" t="s">
         <v>95</v>
       </c>
@@ -1522,7 +1492,7 @@
         <v>86</v>
       </c>
       <c r="F4" s="12"/>
-      <c r="G4" s="34">
+      <c r="G4" s="28">
         <v>43130</v>
       </c>
       <c r="H4" s="12"/>
@@ -1531,10 +1501,10 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="35"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="14" t="s">
         <v>87</v>
       </c>
@@ -1543,7 +1513,7 @@
         <v>88</v>
       </c>
       <c r="F5" s="12"/>
-      <c r="G5" s="34">
+      <c r="G5" s="28">
         <v>43130</v>
       </c>
       <c r="H5" s="12"/>
@@ -1552,10 +1522,10 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="35"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="14" t="s">
         <v>93</v>
       </c>
@@ -1564,7 +1534,7 @@
         <v>88</v>
       </c>
       <c r="F6" s="12"/>
-      <c r="G6" s="34">
+      <c r="G6" s="28">
         <v>43130</v>
       </c>
       <c r="H6" s="12"/>
@@ -1573,8 +1543,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="32"/>
-      <c r="B7" s="35"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="14" t="s">
         <v>89</v>
       </c>
@@ -1583,7 +1553,7 @@
         <v>90</v>
       </c>
       <c r="F7" s="12"/>
-      <c r="G7" s="34">
+      <c r="G7" s="28">
         <v>43189</v>
       </c>
       <c r="H7" s="12"/>
@@ -1592,10 +1562,10 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="34" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="14" t="s">
@@ -1608,7 +1578,7 @@
       <c r="F8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="34">
+      <c r="G8" s="28">
         <v>43084</v>
       </c>
       <c r="H8" s="12"/>
@@ -1617,8 +1587,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="32"/>
-      <c r="B9" s="35"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="37"/>
       <c r="C9" s="14" t="s">
         <v>111</v>
       </c>
@@ -1629,7 +1599,7 @@
       <c r="F9" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="G9" s="34">
+      <c r="G9" s="28">
         <v>43464</v>
       </c>
       <c r="H9" s="12"/>
@@ -1638,8 +1608,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="32"/>
-      <c r="B10" s="35"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="14" t="s">
         <v>109</v>
       </c>
@@ -1648,17 +1618,17 @@
         <v>103</v>
       </c>
       <c r="F10" s="12"/>
-      <c r="G10" s="34">
+      <c r="G10" s="28">
         <v>43189</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
     </row>
     <row r="11" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="35"/>
+      <c r="B11" s="37"/>
       <c r="C11" s="14" t="s">
         <v>116</v>
       </c>
@@ -1669,20 +1639,20 @@
       <c r="F11" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="G11" s="34">
+      <c r="G11" s="28">
         <v>43281</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
     </row>
     <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="34" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="12" t="s">
@@ -1693,7 +1663,7 @@
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="34">
+      <c r="H12" s="28">
         <v>43070</v>
       </c>
       <c r="I12" s="12" t="s">
@@ -1701,11 +1671,11 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
       <c r="D13" s="12" t="s">
         <v>19</v>
       </c>
@@ -1713,10 +1683,10 @@
         <v>15</v>
       </c>
       <c r="F13" s="12"/>
-      <c r="G13" s="34" t="s">
+      <c r="G13" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="H13" s="34">
+      <c r="H13" s="28">
         <v>43086</v>
       </c>
       <c r="I13" s="12" t="s">
@@ -1724,9 +1694,9 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="32"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="36"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="35"/>
       <c r="D14" s="12" t="s">
         <v>98</v>
       </c>
@@ -1734,7 +1704,7 @@
         <v>86</v>
       </c>
       <c r="F14" s="12"/>
-      <c r="G14" s="34">
+      <c r="G14" s="28">
         <v>43464</v>
       </c>
       <c r="H14" s="12"/>
@@ -1743,11 +1713,11 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="33" t="s">
+      <c r="B15" s="37"/>
+      <c r="C15" s="34" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="12" t="s">
@@ -1758,7 +1728,7 @@
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
-      <c r="H15" s="34">
+      <c r="H15" s="28">
         <v>43025</v>
       </c>
       <c r="I15" s="12" t="s">
@@ -1766,11 +1736,11 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
       <c r="D16" s="12" t="s">
         <v>101</v>
       </c>
@@ -1778,7 +1748,7 @@
         <v>102</v>
       </c>
       <c r="F16" s="12"/>
-      <c r="G16" s="34">
+      <c r="G16" s="28">
         <v>43464</v>
       </c>
       <c r="H16" s="12"/>
@@ -1787,10 +1757,10 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="34" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="14" t="s">
@@ -1803,7 +1773,7 @@
       <c r="F17" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="G17" s="34">
+      <c r="G17" s="28">
         <v>43054</v>
       </c>
       <c r="I17" s="12" t="s">
@@ -1811,10 +1781,10 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="36"/>
+      <c r="B18" s="35"/>
       <c r="C18" s="14" t="s">
         <v>60</v>
       </c>
@@ -1823,7 +1793,7 @@
         <v>67</v>
       </c>
       <c r="F18" s="12"/>
-      <c r="G18" s="34">
+      <c r="G18" s="28">
         <v>43281</v>
       </c>
       <c r="H18" s="12"/>
@@ -1832,10 +1802,10 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="34" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="14" t="s">
@@ -1849,7 +1819,7 @@
         <v>113</v>
       </c>
       <c r="G19" s="12"/>
-      <c r="H19" s="34">
+      <c r="H19" s="28">
         <v>43070</v>
       </c>
       <c r="I19" s="12" t="s">
@@ -1857,11 +1827,11 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="37" t="s">
+      <c r="B20" s="35"/>
+      <c r="C20" s="29" t="s">
         <v>61</v>
       </c>
       <c r="D20" s="15"/>
@@ -1871,7 +1841,7 @@
       <c r="F20" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="G20" s="34">
+      <c r="G20" s="28">
         <v>43191</v>
       </c>
       <c r="H20" s="12"/>
@@ -1880,10 +1850,10 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="34" t="s">
         <v>64</v>
       </c>
       <c r="C21" s="14" t="s">
@@ -1896,7 +1866,7 @@
       <c r="F21" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="G21" s="34">
+      <c r="G21" s="28">
         <v>43100</v>
       </c>
       <c r="H21" s="12"/>
@@ -1905,10 +1875,10 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="36"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="14" t="s">
         <v>62</v>
       </c>
@@ -1919,7 +1889,7 @@
       <c r="F22" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="G22" s="34">
+      <c r="G22" s="28">
         <v>43464</v>
       </c>
       <c r="H22" s="12"/>
@@ -1928,7 +1898,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="27" t="s">
         <v>43</v>
       </c>
       <c r="C23" s="12"/>
@@ -1940,7 +1910,7 @@
       <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="27" t="s">
         <v>44</v>
       </c>
       <c r="B24" s="12"/>
@@ -1953,7 +1923,7 @@
       <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="27" t="s">
         <v>45</v>
       </c>
       <c r="B25" s="12"/>
@@ -1966,7 +1936,7 @@
       <c r="I25" s="12"/>
     </row>
     <row r="26" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="27" t="s">
         <v>46</v>
       </c>
       <c r="B26" s="12"/>
@@ -1979,7 +1949,7 @@
       <c r="I26" s="12"/>
     </row>
     <row r="27" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="27" t="s">
         <v>47</v>
       </c>
       <c r="B27" s="12"/>
@@ -1992,7 +1962,7 @@
       <c r="I27" s="12"/>
     </row>
     <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="27" t="s">
         <v>48</v>
       </c>
       <c r="B28" s="12"/>
@@ -2005,7 +1975,7 @@
       <c r="I28" s="12"/>
     </row>
     <row r="29" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="27" t="s">
         <v>49</v>
       </c>
       <c r="B29" s="12"/>
@@ -2018,7 +1988,7 @@
       <c r="I29" s="12"/>
     </row>
     <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="32" t="s">
+      <c r="A30" s="27" t="s">
         <v>50</v>
       </c>
       <c r="B30" s="12"/>
@@ -2031,7 +2001,7 @@
       <c r="I30" s="12"/>
     </row>
     <row r="31" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="32" t="s">
+      <c r="A31" s="27" t="s">
         <v>51</v>
       </c>
       <c r="B31" s="12"/>
@@ -2044,7 +2014,7 @@
       <c r="I31" s="12"/>
     </row>
     <row r="32" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="27" t="s">
         <v>52</v>
       </c>
       <c r="B32" s="12"/>
@@ -2057,7 +2027,7 @@
       <c r="I32" s="12"/>
     </row>
     <row r="33" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="27" t="s">
         <v>53</v>
       </c>
       <c r="B33" s="12"/>
@@ -2070,7 +2040,7 @@
       <c r="I33" s="12"/>
     </row>
     <row r="34" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="32" t="s">
+      <c r="A34" s="27" t="s">
         <v>54</v>
       </c>
       <c r="B34" s="12"/>
@@ -2083,7 +2053,7 @@
       <c r="I34" s="12"/>
     </row>
     <row r="35" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="32" t="s">
+      <c r="A35" s="27" t="s">
         <v>55</v>
       </c>
       <c r="B35" s="12"/>
@@ -2096,7 +2066,7 @@
       <c r="I35" s="12"/>
     </row>
     <row r="36" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="32" t="s">
+      <c r="A36" s="27" t="s">
         <v>56</v>
       </c>
       <c r="B36" s="12"/>
@@ -2109,7 +2079,7 @@
       <c r="I36" s="12"/>
     </row>
     <row r="37" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="32"/>
+      <c r="A37" s="27"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
@@ -2120,7 +2090,7 @@
       <c r="I37" s="15"/>
     </row>
     <row r="38" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="32"/>
+      <c r="A38" s="27"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
@@ -2167,26 +2137,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
@@ -2530,12 +2500,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
@@ -2562,7 +2532,7 @@
       <c r="B3" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="31" t="s">
         <v>132</v>
       </c>
       <c r="D3" s="17"/>
@@ -2572,7 +2542,7 @@
       <c r="B4" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="31" t="s">
         <v>129</v>
       </c>
       <c r="D4" s="17"/>
@@ -2582,7 +2552,7 @@
       <c r="B5" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="31" t="s">
         <v>130</v>
       </c>
       <c r="D5" s="17"/>
@@ -2592,7 +2562,7 @@
       <c r="B6" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="31" t="s">
         <v>131</v>
       </c>
       <c r="D6" s="17"/>
@@ -2600,67 +2570,67 @@
     <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="39"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="17"/>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="39"/>
+      <c r="C8" s="31"/>
       <c r="D8" s="17"/>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="39"/>
+      <c r="C9" s="31"/>
       <c r="D9" s="17"/>
     </row>
     <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="39"/>
+      <c r="C10" s="31"/>
       <c r="D10" s="17"/>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="39"/>
+      <c r="C11" s="31"/>
       <c r="D11" s="17"/>
     </row>
     <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="39"/>
+      <c r="C12" s="31"/>
       <c r="D12" s="17"/>
     </row>
     <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="39"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="17"/>
     </row>
     <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="39"/>
+      <c r="C14" s="31"/>
       <c r="D14" s="17"/>
     </row>
     <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="39"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="17"/>
     </row>
     <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="39"/>
+      <c r="C16" s="31"/>
       <c r="D16" s="17"/>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
-      <c r="C17" s="39"/>
+      <c r="C17" s="31"/>
       <c r="D17" s="17"/>
     </row>
     <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2836,12 +2806,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
@@ -2917,8 +2887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2930,12 +2900,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
@@ -2952,7 +2922,9 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>134</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="17"/>
@@ -3638,12 +3610,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
@@ -4347,12 +4319,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
@@ -4377,91 +4349,91 @@
         <v>124</v>
       </c>
       <c r="B3" s="16"/>
-      <c r="C3" s="39"/>
+      <c r="C3" s="31"/>
       <c r="D3" s="17"/>
     </row>
     <row r="4" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="16"/>
       <c r="B4" s="16"/>
-      <c r="C4" s="39"/>
+      <c r="C4" s="31"/>
       <c r="D4" s="17"/>
     </row>
     <row r="5" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="16"/>
       <c r="B5" s="16"/>
-      <c r="C5" s="39"/>
+      <c r="C5" s="31"/>
       <c r="D5" s="17"/>
     </row>
     <row r="6" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="16"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="39"/>
+      <c r="C6" s="31"/>
       <c r="D6" s="17"/>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="39"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="17"/>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="39"/>
+      <c r="C8" s="31"/>
       <c r="D8" s="17"/>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="39"/>
+      <c r="C9" s="31"/>
       <c r="D9" s="17"/>
     </row>
     <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="39"/>
+      <c r="C10" s="31"/>
       <c r="D10" s="17"/>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="39"/>
+      <c r="C11" s="31"/>
       <c r="D11" s="17"/>
     </row>
     <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="39"/>
+      <c r="C12" s="31"/>
       <c r="D12" s="17"/>
     </row>
     <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="39"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="17"/>
     </row>
     <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="39"/>
+      <c r="C14" s="31"/>
       <c r="D14" s="17"/>
     </row>
     <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="39"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="17"/>
     </row>
     <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="39"/>
+      <c r="C16" s="31"/>
       <c r="D16" s="17"/>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
-      <c r="C17" s="39"/>
+      <c r="C17" s="31"/>
       <c r="D17" s="17"/>
     </row>
     <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -4637,12 +4609,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
@@ -4667,91 +4639,91 @@
         <v>124</v>
       </c>
       <c r="B3" s="16"/>
-      <c r="C3" s="39"/>
+      <c r="C3" s="31"/>
       <c r="D3" s="17"/>
     </row>
     <row r="4" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="16"/>
       <c r="B4" s="16"/>
-      <c r="C4" s="39"/>
+      <c r="C4" s="31"/>
       <c r="D4" s="17"/>
     </row>
     <row r="5" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="16"/>
       <c r="B5" s="16"/>
-      <c r="C5" s="39"/>
+      <c r="C5" s="31"/>
       <c r="D5" s="17"/>
     </row>
     <row r="6" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="16"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="39"/>
+      <c r="C6" s="31"/>
       <c r="D6" s="17"/>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="39"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="17"/>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="39"/>
+      <c r="C8" s="31"/>
       <c r="D8" s="17"/>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="39"/>
+      <c r="C9" s="31"/>
       <c r="D9" s="17"/>
     </row>
     <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="39"/>
+      <c r="C10" s="31"/>
       <c r="D10" s="17"/>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="39"/>
+      <c r="C11" s="31"/>
       <c r="D11" s="17"/>
     </row>
     <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="39"/>
+      <c r="C12" s="31"/>
       <c r="D12" s="17"/>
     </row>
     <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="39"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="17"/>
     </row>
     <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="39"/>
+      <c r="C14" s="31"/>
       <c r="D14" s="17"/>
     </row>
     <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="39"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="17"/>
     </row>
     <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="39"/>
+      <c r="C16" s="31"/>
       <c r="D16" s="17"/>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
-      <c r="C17" s="39"/>
+      <c r="C17" s="31"/>
       <c r="D17" s="17"/>
     </row>
     <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
